--- a/Document/IntegrationTest/LowHope Integration Test/IntegrationTest_BACK_MANAGER.xlsx
+++ b/Document/IntegrationTest/LowHope Integration Test/IntegrationTest_BACK_MANAGER.xlsx
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="181">
   <si>
     <t>OJECT</t>
   </si>
@@ -1193,6 +1193,11 @@
   <si>
     <t>On create game page   
 1.User copy url link                                                                   2.Paste the url link into other browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Go to lowhope website
+1.Login
+2.Input email that doesn't exist in system</t>
   </si>
 </sst>
 </file>
@@ -2201,8 +2206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2501,16 +2506,30 @@
       </c>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="90">
       <c r="A18" s="39"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="B18" s="3">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="6"/>
+      <c r="G18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="6">
+        <v>43073</v>
+      </c>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10">
